--- a/Data/Stock_Global.xlsx
+++ b/Data/Stock_Global.xlsx
@@ -61,37 +61,37 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>22910811</t>
-  </si>
-  <si>
-    <t>4872933</t>
-  </si>
-  <si>
-    <t>1299395</t>
-  </si>
-  <si>
-    <t>17403213</t>
-  </si>
-  <si>
-    <t>121047324</t>
-  </si>
-  <si>
-    <t>2020-12-29</t>
-  </si>
-  <si>
-    <t>0.3465%</t>
-  </si>
-  <si>
-    <t>1.1584%</t>
-  </si>
-  <si>
-    <t>-0.9780%</t>
-  </si>
-  <si>
-    <t>-0.3601%</t>
-  </si>
-  <si>
-    <t>-1.3315%</t>
+    <t>41878754</t>
+  </si>
+  <si>
+    <t>4065357</t>
+  </si>
+  <si>
+    <t>2518440</t>
+  </si>
+  <si>
+    <t>33700498</t>
+  </si>
+  <si>
+    <t>139351145</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2.8390%</t>
+  </si>
+  <si>
+    <t>-2.4897%</t>
+  </si>
+  <si>
+    <t>-0.3234%</t>
+  </si>
+  <si>
+    <t>-2.5929%</t>
+  </si>
+  <si>
+    <t>-3.3662%</t>
   </si>
 </sst>
 </file>
@@ -492,16 +492,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>661</v>
+        <v>758.49</v>
       </c>
       <c r="C2">
-        <v>669.9</v>
+        <v>774</v>
       </c>
       <c r="D2">
-        <v>655</v>
+        <v>749.1</v>
       </c>
       <c r="E2">
-        <v>665.99</v>
+        <v>755.98</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -510,10 +510,10 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>663.6900000000001</v>
+        <v>735.11</v>
       </c>
       <c r="I2">
-        <v>2.3</v>
+        <v>20.87</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -524,16 +524,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3309.94</v>
+        <v>3146.48</v>
       </c>
       <c r="C3">
-        <v>3350.65</v>
+        <v>3197.51</v>
       </c>
       <c r="D3">
-        <v>3281.22</v>
+        <v>3131.16</v>
       </c>
       <c r="E3">
-        <v>3322</v>
+        <v>3138.38</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -542,10 +542,10 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>3283.96</v>
+        <v>3218.51</v>
       </c>
       <c r="I3">
-        <v>38.04</v>
+        <v>-80.13</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -556,16 +556,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1787.79</v>
+        <v>1702.63</v>
       </c>
       <c r="C4">
-        <v>1792.44</v>
+        <v>1748</v>
       </c>
       <c r="D4">
-        <v>1756.09</v>
+        <v>1699</v>
       </c>
       <c r="E4">
-        <v>1758.72</v>
+        <v>1735.29</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -574,10 +574,10 @@
         <v>20</v>
       </c>
       <c r="H4">
-        <v>1776.09</v>
+        <v>1740.92</v>
       </c>
       <c r="I4">
-        <v>-17.37</v>
+        <v>-5.63</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -588,16 +588,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>226.31</v>
+        <v>212.17</v>
       </c>
       <c r="C5">
-        <v>227.18</v>
+        <v>216.49</v>
       </c>
       <c r="D5">
-        <v>223.58</v>
+        <v>211.94</v>
       </c>
       <c r="E5">
-        <v>224.15</v>
+        <v>212.25</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -606,10 +606,10 @@
         <v>20</v>
       </c>
       <c r="H5">
-        <v>224.96</v>
+        <v>217.9</v>
       </c>
       <c r="I5">
-        <v>-0.8100000000000001</v>
+        <v>-5.65</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
@@ -620,16 +620,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>138.05</v>
+        <v>127.72</v>
       </c>
       <c r="C6">
-        <v>138.79</v>
+        <v>131.05</v>
       </c>
       <c r="D6">
-        <v>134.34</v>
+        <v>126.38</v>
       </c>
       <c r="E6">
-        <v>134.87</v>
+        <v>126.6</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -638,10 +638,10 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>136.69</v>
+        <v>131.01</v>
       </c>
       <c r="I6">
-        <v>-1.82</v>
+        <v>-4.41</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
